--- a/data/out/cities.xlsx
+++ b/data/out/cities.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,10 +421,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="17" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="16" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -443,11 +442,6 @@
           <t>country</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>area_km2</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -465,97 +459,72 @@
           <t>Россия</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2561</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Минск</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5398064</t>
+          <t>1991064</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Россия</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1439</t>
+          <t>Беларусь</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Новосибирск</t>
+          <t>Алматы</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1625631</t>
+          <t>1912262</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Россия</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>502</t>
+          <t>Казахстан</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Лондон</t>
+          <t>Париж</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8908081</t>
+          <t>2148327</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Великобритания</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1572</t>
+          <t>Франция</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Токио</t>
+          <t>Берлин</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>13929286</t>
+          <t>3644826</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Япония</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2194</t>
+          <t>Германия</t>
         </is>
       </c>
     </row>
